--- a/data/ospree_searchers/baskinsearches_DL.xlsx
+++ b/data/ospree_searchers/baskinsearches_DL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deirdreloughnan/Documents/github/egret/data/ospree_searchers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F91C17E-7BD5-864C-9278-E32D30CE9070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18B250-7B06-7F41-AD9E-7D36F10B6174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="10980" windowWidth="36460" windowHeight="10240" activeTab="1" xr2:uid="{889A57AF-BF39-5D40-9210-6ED7C554C77F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>genus</t>
   </si>
@@ -197,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +225,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,7 +706,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,6 +790,12 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
@@ -813,6 +825,15 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
@@ -839,6 +860,15 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" t="s">
         <v>40</v>
       </c>
@@ -862,6 +892,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" t="s">
         <v>41</v>
       </c>
@@ -888,6 +927,12 @@
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
@@ -902,6 +947,15 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -928,6 +982,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
@@ -951,6 +1014,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" t="s">
         <v>47</v>
       </c>
@@ -977,6 +1049,15 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
@@ -1000,6 +1081,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>